--- a/Testing backend.xlsx
+++ b/Testing backend.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bascu\Desktop\PetmApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bascu\Documents\GitHub\Petmapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E96A46-D78E-4947-A42B-0FFE6B5B2948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B618685-61D2-42D3-A930-D38FF9C23E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{96B67229-F453-4726-837A-CF0ED3F6CAF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
   <si>
     <t>Index</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>coment_negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,6 +854,9 @@
       <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">

--- a/Testing backend.xlsx
+++ b/Testing backend.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bascu\Documents\GitHub\Petmapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bascu\Desktop\PetmApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B618685-61D2-42D3-A930-D38FF9C23E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106E560-DAFE-4602-9CDC-B4116FCD0C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{96B67229-F453-4726-837A-CF0ED3F6CAF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="35">
   <si>
     <t>Index</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>not ok</t>
-  </si>
-  <si>
     <t>Modelo</t>
   </si>
   <si>
@@ -127,6 +124,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Peticiones</t>
+  </si>
+  <si>
+    <t>Publicacion</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Alertas</t>
   </si>
 </sst>
 </file>
@@ -156,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +187,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,16 +211,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BAD01C-9C1B-4CAE-B660-2CB7B480A36B}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,10 +550,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -671,7 +674,7 @@
       <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -741,14 +744,14 @@
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>20</v>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,7 +808,7 @@
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -831,7 +834,7 @@
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -854,13 +857,13 @@
       <c r="H12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>30</v>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -912,7 +915,7 @@
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -938,34 +941,34 @@
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -988,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,13 +1002,31 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,16 +1039,34 @@
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>20</v>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
